--- a/MiningOverview.xlsx
+++ b/MiningOverview.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ppeters\Documents\GitHub\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ppeters\Documents\GitHub\CoreBC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74094DDA-742F-4932-B1B1-C623065A427B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{601C0994-2199-4EAD-8EFC-14E3277FE4E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{A1F94E51-65F3-4BE3-B1E3-99ED56D43B86}"/>
+    <workbookView xWindow="13320" yWindow="1005" windowWidth="13695" windowHeight="11835" xr2:uid="{A1F94E51-65F3-4BE3-B1E3-99ED56D43B86}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
     <t>BTC In Circulation</t>
   </si>
   <si>
-    <t>BTC To Mine</t>
+    <t>BTC mined each block</t>
   </si>
 </sst>
 </file>
@@ -53,7 +53,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="195" formatCode="0.000000000000"/>
+    <numFmt numFmtId="164" formatCode="0.000000000000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -86,7 +86,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="195" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -404,7 +404,7 @@
   <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/MiningOverview.xlsx
+++ b/MiningOverview.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ppeters\Documents\GitHub\CoreBC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{601C0994-2199-4EAD-8EFC-14E3277FE4E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8050F876-DF4A-4D86-B53A-EC0549A8D6DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13320" yWindow="1005" windowWidth="13695" windowHeight="11835" xr2:uid="{A1F94E51-65F3-4BE3-B1E3-99ED56D43B86}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{A1F94E51-65F3-4BE3-B1E3-99ED56D43B86}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>Block Height</t>
   </si>
@@ -47,13 +48,24 @@
   <si>
     <t>BTC mined each block</t>
   </si>
+  <si>
+    <t>DYL Mined</t>
+  </si>
+  <si>
+    <t>DYL mined each block</t>
+  </si>
+  <si>
+    <t>DYL In Circulation</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000000000000"/>
+    <numFmt numFmtId="192" formatCode="0.0000"/>
+    <numFmt numFmtId="197" formatCode="0.000000000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -84,9 +96,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="192" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="197" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -401,10 +417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D23A342-2D2A-4465-8EFC-15C541FCF185}">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D31" sqref="A1:D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -697,7 +713,7 @@
         <v>3.0517578125E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>320.4345703125</v>
@@ -715,7 +731,7 @@
         <v>1.52587890625E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>160.21728515625</v>
@@ -733,7 +749,7 @@
         <v>7.62939453125E-4</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>80.108642578125</v>
@@ -751,7 +767,7 @@
         <v>3.814697265625E-4</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>40.0543212890625</v>
@@ -769,7 +785,7 @@
         <v>1.9073486328125E-4</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>20.02716064453125</v>
@@ -787,7 +803,7 @@
         <v>9.5367431640625E-5</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>10.013580322265625</v>
@@ -805,7 +821,7 @@
         <v>4.76837158203125E-5</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>5.0067901611328125</v>
@@ -823,7 +839,7 @@
         <v>2.384185791015625E-5</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>2.5033950805664063</v>
@@ -841,7 +857,7 @@
         <v>1.1920928955078125E-5</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <f t="shared" si="0"/>
         <v>1.2516975402832031</v>
@@ -859,7 +875,7 @@
         <v>5.9604644775390625E-6</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <f t="shared" si="0"/>
         <v>0.62584877014160156</v>
@@ -877,7 +893,7 @@
         <v>2.9802322387695313E-6</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
         <f t="shared" si="0"/>
         <v>0.31292438507080078</v>
@@ -895,7 +911,7 @@
         <v>1.4901161193847656E-6</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
         <f t="shared" si="0"/>
         <v>0.15646219253540039</v>
@@ -913,7 +929,7 @@
         <v>7.4505805969238281E-7</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
         <f t="shared" si="0"/>
         <v>7.8231096267700195E-2</v>
@@ -931,7 +947,7 @@
         <v>3.7252902984619141E-7</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
         <f t="shared" si="0"/>
         <v>3.9115548133850098E-2</v>
@@ -949,7 +965,7 @@
         <v>1.862645149230957E-7</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
         <f t="shared" si="0"/>
         <v>1.9557774066925049E-2</v>
@@ -965,14 +981,817 @@
       <c r="D31" s="1">
         <f t="shared" si="2"/>
         <v>9.3132257461547852E-8</v>
-      </c>
-      <c r="E31">
-        <f>B31*10</f>
-        <v>63000000</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A18D26A6-186E-4C39-89BF-6571764FE5D4}">
+  <dimension ref="A1:D44"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <f>B2*D2</f>
+        <v>105000000</v>
+      </c>
+      <c r="B2" s="5">
+        <v>30000</v>
+      </c>
+      <c r="C2" s="2">
+        <f>A2</f>
+        <v>105000000</v>
+      </c>
+      <c r="D2" s="4">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <f>10000*D3</f>
+        <v>26250000</v>
+      </c>
+      <c r="B3" s="5">
+        <f>B2+10000</f>
+        <v>40000</v>
+      </c>
+      <c r="C3" s="2">
+        <f>SUM(A2:A3)</f>
+        <v>131250000</v>
+      </c>
+      <c r="D3" s="4">
+        <f>D2*0.75</f>
+        <v>2625</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <f t="shared" ref="A4:A44" si="0">10000*D4</f>
+        <v>19687500</v>
+      </c>
+      <c r="B4" s="5">
+        <f t="shared" ref="B4:B44" si="1">B3+10000</f>
+        <v>50000</v>
+      </c>
+      <c r="C4" s="2">
+        <f>SUM(A2:A4)</f>
+        <v>150937500</v>
+      </c>
+      <c r="D4" s="4">
+        <f t="shared" ref="D4:D44" si="2">D3*0.75</f>
+        <v>1968.75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <f t="shared" si="0"/>
+        <v>14765625</v>
+      </c>
+      <c r="B5" s="5">
+        <f t="shared" si="1"/>
+        <v>60000</v>
+      </c>
+      <c r="C5" s="2">
+        <f>SUM(A2:A5)</f>
+        <v>165703125</v>
+      </c>
+      <c r="D5" s="4">
+        <f t="shared" si="2"/>
+        <v>1476.5625</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <f t="shared" si="0"/>
+        <v>11074218.75</v>
+      </c>
+      <c r="B6" s="5">
+        <f t="shared" si="1"/>
+        <v>70000</v>
+      </c>
+      <c r="C6" s="2">
+        <f>SUM(A2:A6)</f>
+        <v>176777343.75</v>
+      </c>
+      <c r="D6" s="4">
+        <f t="shared" si="2"/>
+        <v>1107.421875</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <f t="shared" si="0"/>
+        <v>8305664.0625</v>
+      </c>
+      <c r="B7" s="5">
+        <f t="shared" si="1"/>
+        <v>80000</v>
+      </c>
+      <c r="C7" s="2">
+        <f>SUM(A2:A7)</f>
+        <v>185083007.8125</v>
+      </c>
+      <c r="D7" s="4">
+        <f t="shared" si="2"/>
+        <v>830.56640625</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <f t="shared" si="0"/>
+        <v>6229248.046875</v>
+      </c>
+      <c r="B8" s="5">
+        <f t="shared" si="1"/>
+        <v>90000</v>
+      </c>
+      <c r="C8" s="2">
+        <f>SUM(A2:A8)</f>
+        <v>191312255.859375</v>
+      </c>
+      <c r="D8" s="4">
+        <f t="shared" si="2"/>
+        <v>622.9248046875</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <f t="shared" si="0"/>
+        <v>4671936.03515625</v>
+      </c>
+      <c r="B9" s="5">
+        <f t="shared" si="1"/>
+        <v>100000</v>
+      </c>
+      <c r="C9" s="2">
+        <f>SUM(A2:A9)</f>
+        <v>195984191.89453125</v>
+      </c>
+      <c r="D9" s="4">
+        <f t="shared" si="2"/>
+        <v>467.193603515625</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <f t="shared" si="0"/>
+        <v>3503952.0263671875</v>
+      </c>
+      <c r="B10" s="5">
+        <f t="shared" si="1"/>
+        <v>110000</v>
+      </c>
+      <c r="C10" s="2">
+        <f>SUM(A2:A10)</f>
+        <v>199488143.92089844</v>
+      </c>
+      <c r="D10" s="4">
+        <f t="shared" si="2"/>
+        <v>350.39520263671875</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <f t="shared" si="0"/>
+        <v>2627964.0197753906</v>
+      </c>
+      <c r="B11" s="5">
+        <f t="shared" si="1"/>
+        <v>120000</v>
+      </c>
+      <c r="C11" s="2">
+        <f>SUM(A2:A11)</f>
+        <v>202116107.94067383</v>
+      </c>
+      <c r="D11" s="4">
+        <f t="shared" si="2"/>
+        <v>262.79640197753906</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <f t="shared" si="0"/>
+        <v>1970973.014831543</v>
+      </c>
+      <c r="B12" s="5">
+        <f t="shared" si="1"/>
+        <v>130000</v>
+      </c>
+      <c r="C12" s="2">
+        <f>SUM(A2:A12)</f>
+        <v>204087080.95550537</v>
+      </c>
+      <c r="D12" s="4">
+        <f t="shared" si="2"/>
+        <v>197.0973014831543</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <f t="shared" si="0"/>
+        <v>1478229.7611236572</v>
+      </c>
+      <c r="B13" s="5">
+        <f t="shared" si="1"/>
+        <v>140000</v>
+      </c>
+      <c r="C13" s="2">
+        <f>SUM(A2:A13)</f>
+        <v>205565310.71662903</v>
+      </c>
+      <c r="D13" s="4">
+        <f t="shared" si="2"/>
+        <v>147.82297611236572</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <f t="shared" si="0"/>
+        <v>1108672.3208427429</v>
+      </c>
+      <c r="B14" s="5">
+        <f t="shared" si="1"/>
+        <v>150000</v>
+      </c>
+      <c r="C14" s="2">
+        <f>SUM(A2:A14)</f>
+        <v>206673983.03747177</v>
+      </c>
+      <c r="D14" s="4">
+        <f t="shared" si="2"/>
+        <v>110.86723208427429</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <f t="shared" si="0"/>
+        <v>831504.24063205719</v>
+      </c>
+      <c r="B15" s="5">
+        <f t="shared" si="1"/>
+        <v>160000</v>
+      </c>
+      <c r="C15" s="2">
+        <f>SUM(A2:A15)</f>
+        <v>207505487.27810383</v>
+      </c>
+      <c r="D15" s="4">
+        <f t="shared" si="2"/>
+        <v>83.150424063205719</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <f t="shared" si="0"/>
+        <v>623628.18047404289</v>
+      </c>
+      <c r="B16" s="5">
+        <f t="shared" si="1"/>
+        <v>170000</v>
+      </c>
+      <c r="C16" s="2">
+        <f>SUM(A2:A16)</f>
+        <v>208129115.45857787</v>
+      </c>
+      <c r="D16" s="4">
+        <f t="shared" si="2"/>
+        <v>62.362818047404289</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <f t="shared" si="0"/>
+        <v>467721.13535553217</v>
+      </c>
+      <c r="B17" s="5">
+        <f t="shared" si="1"/>
+        <v>180000</v>
+      </c>
+      <c r="C17" s="2">
+        <f>SUM(A2:A17)</f>
+        <v>208596836.5939334</v>
+      </c>
+      <c r="D17" s="4">
+        <f t="shared" si="2"/>
+        <v>46.772113535553217</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <f t="shared" si="0"/>
+        <v>350790.85151664913</v>
+      </c>
+      <c r="B18" s="5">
+        <f t="shared" si="1"/>
+        <v>190000</v>
+      </c>
+      <c r="C18" s="2">
+        <f>SUM(A2:A18)</f>
+        <v>208947627.44545007</v>
+      </c>
+      <c r="D18" s="4">
+        <f t="shared" si="2"/>
+        <v>35.079085151664913</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <f t="shared" si="0"/>
+        <v>263093.13863748685</v>
+      </c>
+      <c r="B19" s="5">
+        <f t="shared" si="1"/>
+        <v>200000</v>
+      </c>
+      <c r="C19" s="2">
+        <f>SUM(A2:A19)</f>
+        <v>209210720.58408755</v>
+      </c>
+      <c r="D19" s="4">
+        <f t="shared" si="2"/>
+        <v>26.309313863748685</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <f t="shared" si="0"/>
+        <v>197319.85397811513</v>
+      </c>
+      <c r="B20" s="5">
+        <f t="shared" si="1"/>
+        <v>210000</v>
+      </c>
+      <c r="C20" s="2">
+        <f>SUM(A2:A20)</f>
+        <v>209408040.43806568</v>
+      </c>
+      <c r="D20" s="4">
+        <f t="shared" si="2"/>
+        <v>19.731985397811513</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <f t="shared" si="0"/>
+        <v>147989.89048358635</v>
+      </c>
+      <c r="B21" s="5">
+        <f t="shared" si="1"/>
+        <v>220000</v>
+      </c>
+      <c r="C21" s="2">
+        <f>SUM(A2:A21)</f>
+        <v>209556030.32854927</v>
+      </c>
+      <c r="D21" s="4">
+        <f t="shared" si="2"/>
+        <v>14.798989048358635</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <f t="shared" si="0"/>
+        <v>110992.41786268976</v>
+      </c>
+      <c r="B22" s="5">
+        <f t="shared" si="1"/>
+        <v>230000</v>
+      </c>
+      <c r="C22" s="2">
+        <f>SUM(A2:A22)</f>
+        <v>209667022.74641195</v>
+      </c>
+      <c r="D22" s="4">
+        <f t="shared" si="2"/>
+        <v>11.099241786268976</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <f t="shared" si="0"/>
+        <v>83244.313397017322</v>
+      </c>
+      <c r="B23" s="5">
+        <f t="shared" si="1"/>
+        <v>240000</v>
+      </c>
+      <c r="C23" s="2">
+        <f>SUM(A2:A23)</f>
+        <v>209750267.05980897</v>
+      </c>
+      <c r="D23" s="4">
+        <f t="shared" si="2"/>
+        <v>8.3244313397017322</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <f t="shared" si="0"/>
+        <v>62433.235047762995</v>
+      </c>
+      <c r="B24" s="5">
+        <f t="shared" si="1"/>
+        <v>250000</v>
+      </c>
+      <c r="C24" s="2">
+        <f>SUM(A2:A24)</f>
+        <v>209812700.29485673</v>
+      </c>
+      <c r="D24" s="4">
+        <f t="shared" si="2"/>
+        <v>6.2433235047762992</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <f t="shared" si="0"/>
+        <v>46824.926285822243</v>
+      </c>
+      <c r="B25" s="5">
+        <f t="shared" si="1"/>
+        <v>260000</v>
+      </c>
+      <c r="C25" s="2">
+        <f>SUM(A2:A25)</f>
+        <v>209859525.22114256</v>
+      </c>
+      <c r="D25" s="4">
+        <f t="shared" si="2"/>
+        <v>4.6824926285822244</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <f t="shared" si="0"/>
+        <v>35118.694714366684</v>
+      </c>
+      <c r="B26" s="5">
+        <f t="shared" si="1"/>
+        <v>270000</v>
+      </c>
+      <c r="C26" s="2">
+        <f>SUM(A2:A26)</f>
+        <v>209894643.91585693</v>
+      </c>
+      <c r="D26" s="4">
+        <f t="shared" si="2"/>
+        <v>3.5118694714366683</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <f t="shared" si="0"/>
+        <v>26339.021035775011</v>
+      </c>
+      <c r="B27" s="5">
+        <f t="shared" si="1"/>
+        <v>280000</v>
+      </c>
+      <c r="C27" s="2">
+        <f>SUM(A2:A27)</f>
+        <v>209920982.93689269</v>
+      </c>
+      <c r="D27" s="4">
+        <f t="shared" si="2"/>
+        <v>2.6339021035775012</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <f t="shared" si="0"/>
+        <v>19754.26577683126</v>
+      </c>
+      <c r="B28" s="5">
+        <f t="shared" si="1"/>
+        <v>290000</v>
+      </c>
+      <c r="C28" s="2">
+        <f>SUM(A2:A28)</f>
+        <v>209940737.20266953</v>
+      </c>
+      <c r="D28" s="4">
+        <f t="shared" si="2"/>
+        <v>1.9754265776831259</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <f t="shared" si="0"/>
+        <v>14815.699332623444</v>
+      </c>
+      <c r="B29" s="5">
+        <f t="shared" si="1"/>
+        <v>300000</v>
+      </c>
+      <c r="C29" s="2">
+        <f>SUM(A2:A29)</f>
+        <v>209955552.90200216</v>
+      </c>
+      <c r="D29" s="4">
+        <f t="shared" si="2"/>
+        <v>1.4815699332623444</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <f t="shared" si="0"/>
+        <v>11111.774499467583</v>
+      </c>
+      <c r="B30" s="5">
+        <f t="shared" si="1"/>
+        <v>310000</v>
+      </c>
+      <c r="C30" s="2">
+        <f>SUM(A2:A30)</f>
+        <v>209966664.67650163</v>
+      </c>
+      <c r="D30" s="4">
+        <f t="shared" si="2"/>
+        <v>1.1111774499467584</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <f t="shared" si="0"/>
+        <v>8333.8308746006878</v>
+      </c>
+      <c r="B31" s="5">
+        <f t="shared" si="1"/>
+        <v>320000</v>
+      </c>
+      <c r="C31" s="2">
+        <f>SUM(A2:A31)</f>
+        <v>209974998.50737622</v>
+      </c>
+      <c r="D31" s="4">
+        <f t="shared" si="2"/>
+        <v>0.83338308746006873</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <f t="shared" si="0"/>
+        <v>6250.373155950515</v>
+      </c>
+      <c r="B32" s="5">
+        <f t="shared" si="1"/>
+        <v>330000</v>
+      </c>
+      <c r="C32" s="2">
+        <f>SUM(A2:A32)</f>
+        <v>209981248.88053218</v>
+      </c>
+      <c r="D32" s="4">
+        <f t="shared" si="2"/>
+        <v>0.62503731559505149</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <f t="shared" si="0"/>
+        <v>4687.7798669628864</v>
+      </c>
+      <c r="B33" s="5">
+        <f t="shared" si="1"/>
+        <v>340000</v>
+      </c>
+      <c r="C33" s="2">
+        <f>SUM(A2:A33)</f>
+        <v>209985936.66039914</v>
+      </c>
+      <c r="D33" s="4">
+        <f t="shared" si="2"/>
+        <v>0.46877798669628862</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <f t="shared" si="0"/>
+        <v>3515.8349002221644</v>
+      </c>
+      <c r="B34" s="5">
+        <f t="shared" si="1"/>
+        <v>350000</v>
+      </c>
+      <c r="C34" s="2">
+        <f>SUM(A2:A34)</f>
+        <v>209989452.49529937</v>
+      </c>
+      <c r="D34" s="4">
+        <f t="shared" si="2"/>
+        <v>0.35158349002221645</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <f t="shared" si="0"/>
+        <v>2636.8761751666239</v>
+      </c>
+      <c r="B35" s="5">
+        <f t="shared" si="1"/>
+        <v>360000</v>
+      </c>
+      <c r="C35" s="2">
+        <f>SUM(A2:A35)</f>
+        <v>209992089.37147453</v>
+      </c>
+      <c r="D35" s="4">
+        <f t="shared" si="2"/>
+        <v>0.26368761751666236</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <f t="shared" si="0"/>
+        <v>1977.6571313749678</v>
+      </c>
+      <c r="B36" s="5">
+        <f t="shared" si="1"/>
+        <v>370000</v>
+      </c>
+      <c r="C36" s="2">
+        <f>SUM(A2:A36)</f>
+        <v>209994067.02860591</v>
+      </c>
+      <c r="D36" s="4">
+        <f t="shared" si="2"/>
+        <v>0.19776571313749677</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <f t="shared" si="0"/>
+        <v>1483.2428485312257</v>
+      </c>
+      <c r="B37" s="5">
+        <f t="shared" si="1"/>
+        <v>380000</v>
+      </c>
+      <c r="C37" s="2">
+        <f>SUM(A2:A37)</f>
+        <v>209995550.27145445</v>
+      </c>
+      <c r="D37" s="4">
+        <f t="shared" si="2"/>
+        <v>0.14832428485312257</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <f t="shared" si="0"/>
+        <v>1112.4321363984193</v>
+      </c>
+      <c r="B38" s="5">
+        <f t="shared" si="1"/>
+        <v>390000</v>
+      </c>
+      <c r="C38" s="2">
+        <f>SUM(A2:A38)</f>
+        <v>209996662.70359084</v>
+      </c>
+      <c r="D38" s="4">
+        <f t="shared" si="2"/>
+        <v>0.11124321363984194</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
+        <f t="shared" si="0"/>
+        <v>834.32410229881464</v>
+      </c>
+      <c r="B39" s="5">
+        <f t="shared" si="1"/>
+        <v>400000</v>
+      </c>
+      <c r="C39" s="2">
+        <f>SUM(A2:A39)</f>
+        <v>209997497.02769315</v>
+      </c>
+      <c r="D39" s="4">
+        <f t="shared" si="2"/>
+        <v>8.343241022988146E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
+        <f t="shared" si="0"/>
+        <v>625.74307672411089</v>
+      </c>
+      <c r="B40" s="5">
+        <f t="shared" si="1"/>
+        <v>410000</v>
+      </c>
+      <c r="C40" s="2">
+        <f>SUM(A2:A40)</f>
+        <v>209998122.77076986</v>
+      </c>
+      <c r="D40" s="4">
+        <f>D39*0.75</f>
+        <v>6.2574307672411095E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
+        <f t="shared" si="0"/>
+        <v>469.3073075430832</v>
+      </c>
+      <c r="B41" s="5">
+        <f t="shared" si="1"/>
+        <v>420000</v>
+      </c>
+      <c r="C41" s="2">
+        <f>SUM(A2:A41)</f>
+        <v>209998592.07807741</v>
+      </c>
+      <c r="D41" s="4">
+        <f t="shared" si="2"/>
+        <v>4.6930730754308321E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
+        <f t="shared" si="0"/>
+        <v>351.9804806573124</v>
+      </c>
+      <c r="B42" s="5">
+        <f t="shared" si="1"/>
+        <v>430000</v>
+      </c>
+      <c r="C42" s="2">
+        <f>SUM(A2:A42)</f>
+        <v>209998944.05855808</v>
+      </c>
+      <c r="D42" s="4">
+        <f t="shared" si="2"/>
+        <v>3.5198048065731243E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
+        <f t="shared" si="0"/>
+        <v>263.98536049298434</v>
+      </c>
+      <c r="B43" s="5">
+        <f t="shared" si="1"/>
+        <v>440000</v>
+      </c>
+      <c r="C43" s="2">
+        <f>SUM(A2:A43)</f>
+        <v>209999208.04391858</v>
+      </c>
+      <c r="D43" s="4">
+        <f t="shared" si="2"/>
+        <v>2.6398536049298434E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="3">
+        <f t="shared" si="0"/>
+        <v>197.98902036973826</v>
+      </c>
+      <c r="B44" s="5">
+        <f t="shared" si="1"/>
+        <v>450000</v>
+      </c>
+      <c r="C44" s="2">
+        <f>SUM(A2:A44)</f>
+        <v>209999406.03293896</v>
+      </c>
+      <c r="D44" s="4">
+        <f t="shared" si="2"/>
+        <v>1.9798902036973827E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/MiningOverview.xlsx
+++ b/MiningOverview.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ppeters\Documents\GitHub\CoreBC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8050F876-DF4A-4D86-B53A-EC0549A8D6DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3730E1A-FB07-4C6E-8595-9340D38F5CC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{A1F94E51-65F3-4BE3-B1E3-99ED56D43B86}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{A1F94E51-65F3-4BE3-B1E3-99ED56D43B86}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -62,10 +62,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000000000000"/>
-    <numFmt numFmtId="192" formatCode="0.0000"/>
-    <numFmt numFmtId="197" formatCode="0.000000000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="166" formatCode="0.000000000"/>
+    <numFmt numFmtId="169" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -96,13 +97,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="192" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="197" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -417,10 +420,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D23A342-2D2A-4465-8EFC-15C541FCF185}">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:R31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D31" sqref="A1:D31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -429,9 +432,12 @@
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.5703125" customWidth="1"/>
+    <col min="18" max="18" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -445,7 +451,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2">
         <f>B2*D2</f>
         <v>10500000</v>
@@ -461,7 +467,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3">
         <f>210000*D3</f>
         <v>5250000</v>
@@ -479,7 +485,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4">
         <f>210000*D4</f>
         <v>2625000</v>
@@ -497,7 +503,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5">
         <f>210000*D5</f>
         <v>1312500</v>
@@ -515,7 +521,7 @@
         <v>6.25</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" ref="A6:A31" si="0">210000*D6</f>
         <v>656250</v>
@@ -533,7 +539,7 @@
         <v>3.125</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>328125</v>
@@ -551,7 +557,7 @@
         <v>1.5625</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>164062.5</v>
@@ -569,7 +575,7 @@
         <v>0.78125</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>82031.25</v>
@@ -587,7 +593,7 @@
         <v>0.390625</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>41015.625</v>
@@ -605,7 +611,7 @@
         <v>0.1953125</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>20507.8125</v>
@@ -623,7 +629,7 @@
         <v>9.765625E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>10253.90625</v>
@@ -640,8 +646,9 @@
         <f t="shared" si="2"/>
         <v>4.8828125E-2</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="P12" s="6"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>5126.953125</v>
@@ -659,7 +666,7 @@
         <v>2.44140625E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>2563.4765625</v>
@@ -677,7 +684,7 @@
         <v>1.220703125E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>1281.73828125</v>
@@ -695,7 +702,7 @@
         <v>6.103515625E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>640.869140625</v>
@@ -713,7 +720,7 @@
         <v>3.0517578125E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>320.4345703125</v>
@@ -731,7 +738,7 @@
         <v>1.52587890625E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>160.21728515625</v>
@@ -749,7 +756,7 @@
         <v>7.62939453125E-4</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>80.108642578125</v>
@@ -767,7 +774,7 @@
         <v>3.814697265625E-4</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>40.0543212890625</v>
@@ -785,7 +792,7 @@
         <v>1.9073486328125E-4</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>20.02716064453125</v>
@@ -803,7 +810,7 @@
         <v>9.5367431640625E-5</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>10.013580322265625</v>
@@ -820,8 +827,9 @@
         <f t="shared" si="2"/>
         <v>4.76837158203125E-5</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="R22" s="6"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>5.0067901611328125</v>
@@ -838,8 +846,9 @@
         <f t="shared" si="2"/>
         <v>2.384185791015625E-5</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="Q23" s="7"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>2.5033950805664063</v>
@@ -857,7 +866,7 @@
         <v>1.1920928955078125E-5</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25">
         <f t="shared" si="0"/>
         <v>1.2516975402832031</v>
@@ -875,7 +884,7 @@
         <v>5.9604644775390625E-6</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26">
         <f t="shared" si="0"/>
         <v>0.62584877014160156</v>
@@ -893,7 +902,7 @@
         <v>2.9802322387695313E-6</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27">
         <f t="shared" si="0"/>
         <v>0.31292438507080078</v>
@@ -911,7 +920,7 @@
         <v>1.4901161193847656E-6</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28">
         <f t="shared" si="0"/>
         <v>0.15646219253540039</v>
@@ -929,7 +938,7 @@
         <v>7.4505805969238281E-7</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29">
         <f t="shared" si="0"/>
         <v>7.8231096267700195E-2</v>
@@ -947,7 +956,7 @@
         <v>3.7252902984619141E-7</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30">
         <f t="shared" si="0"/>
         <v>3.9115548133850098E-2</v>
@@ -965,13 +974,13 @@
         <v>1.862645149230957E-7</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31">
         <f t="shared" si="0"/>
         <v>1.9557774066925049E-2</v>
       </c>
       <c r="B31">
-        <f t="shared" si="1"/>
+        <f>B30+210000</f>
         <v>6300000</v>
       </c>
       <c r="C31">
@@ -993,7 +1002,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A18D26A6-186E-4C39-89BF-6571764FE5D4}">
   <dimension ref="A1:D44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>

--- a/MiningOverview.xlsx
+++ b/MiningOverview.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ppeters\Documents\GitHub\CoreBC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3730E1A-FB07-4C6E-8595-9340D38F5CC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD79F4A1-D7F9-4523-B253-C4D27A2BC6F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{A1F94E51-65F3-4BE3-B1E3-99ED56D43B86}"/>
   </bookViews>
@@ -66,7 +66,7 @@
     <numFmt numFmtId="164" formatCode="0.000000000000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
     <numFmt numFmtId="166" formatCode="0.000000000"/>
-    <numFmt numFmtId="169" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="167" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -105,7 +105,7 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -422,8 +422,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D23A342-2D2A-4465-8EFC-15C541FCF185}">
   <dimension ref="A1:R31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -527,7 +527,7 @@
         <v>656250</v>
       </c>
       <c r="B6">
-        <f t="shared" ref="B6:B31" si="1">B5+210000</f>
+        <f t="shared" ref="B6:B30" si="1">B5+210000</f>
         <v>1050000</v>
       </c>
       <c r="C6">
